--- a/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
+++ b/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
@@ -351,7 +351,7 @@
         </is>
       </c>
       <c r="B15" s="65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B72" s="65">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B76" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
